--- a/Documentacion/Proyecto/Matriz de Trazabilidad.xlsx
+++ b/Documentacion/Proyecto/Matriz de Trazabilidad.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Req vs CU" sheetId="1" r:id="rId1"/>
-    <sheet name="Res vs. GUI" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Req vs. Componentes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
   <si>
     <t>Versión [1.0]</t>
   </si>
@@ -67,9 +66,6 @@
     <t>Gestión de de clientes, actividades, sitios, cuadrillas</t>
   </si>
   <si>
-    <t>Permitir llevar un registro actualizado del estado de la documentación de cada integrante de cada cuadrilla, informando de vencimientos previstos que no han sido renovados</t>
-  </si>
-  <si>
     <t>Gestión de Proyectos, solicitudes de Tareas, Tareas</t>
   </si>
   <si>
@@ -397,22 +393,49 @@
     <t>Consultar tipo acontecimientos</t>
   </si>
   <si>
-    <t>[Matriz de Trazabilidad Requisitos vs. Interfaces Gráficas de Usuario]</t>
-  </si>
-  <si>
-    <t>Pantalla Modificar Proyecto</t>
-  </si>
-  <si>
-    <t>Pantalla de Menu Principal</t>
-  </si>
-  <si>
-    <t>Pantalla Listar Proyectos</t>
-  </si>
-  <si>
-    <t>Pantalla  Registrar Proyecto</t>
-  </si>
-  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Gestión de de clientes,  sitios Y cuadrillas</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Core</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Cuadrillas</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Tarea</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Documento</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Herramienta</t>
+  </si>
+  <si>
+    <t>Componente Grails Business.Solicitud</t>
+  </si>
+  <si>
+    <t>Componente Grails Support.Secure</t>
+  </si>
+  <si>
+    <t>Componente Grails Spring</t>
+  </si>
+  <si>
+    <t>Compente Android.WebServices</t>
+  </si>
+  <si>
+    <t>Compente Android.Tareas</t>
+  </si>
+  <si>
+    <t>Compente Android.Acontecimientos</t>
+  </si>
+  <si>
+    <t>[Matriz de Trazabilidad Requisitos vs. Componentes del Sistema]</t>
+  </si>
+  <si>
+    <t>* Cuando se nombra componente Grails, este incluye la clase de dominio, su controlador y su vista</t>
   </si>
 </sst>
 </file>
@@ -695,7 +718,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -731,29 +754,20 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -773,21 +787,31 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1177,12 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N16" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="A11" sqref="A11"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1191,7 +1211,15 @@
     <col min="2" max="2" width="3.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="37" style="2" customWidth="1"/>
-    <col min="5" max="14" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" style="2" customWidth="1"/>
     <col min="15" max="18" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="28" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1211,26 +1239,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:112" ht="23.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="2:112">
       <c r="B3" s="3"/>
@@ -1240,468 +1268,468 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:112" ht="39" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="2:112" ht="37.5" customHeight="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="2:112" ht="18.75">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="2:112">
       <c r="B7" s="5"/>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22">
+      <c r="T7" s="18"/>
+      <c r="U7" s="19">
         <v>41202</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="2:112" ht="15" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="2:112" ht="15" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="2:112" ht="15.75" thickBot="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:112" ht="223.5" customHeight="1" thickBot="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="I11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="N11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="R11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="S11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="U11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="V11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="W11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="X11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="AA11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AB11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AC11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AE11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AF11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AG11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AH11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AI11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AK11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AL11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AM11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AM11" s="7" t="s">
+      <c r="AN11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AO11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AP11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="AP11" s="7" t="s">
+      <c r="AQ11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AQ11" s="7" t="s">
+      <c r="AR11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AS11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AT11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AU11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AU11" s="7" t="s">
+      <c r="AV11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AW11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AW11" s="7" t="s">
+      <c r="AX11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AX11" s="7" t="s">
+      <c r="AY11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AY11" s="7" t="s">
+      <c r="AZ11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AZ11" s="7" t="s">
+      <c r="BA11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="BA11" s="7" t="s">
+      <c r="BB11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="BB11" s="7" t="s">
+      <c r="BC11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="BC11" s="7" t="s">
+      <c r="BD11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="BD11" s="7" t="s">
+      <c r="BE11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="BE11" s="7" t="s">
+      <c r="BF11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="BF11" s="7" t="s">
+      <c r="BG11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="BG11" s="7" t="s">
+      <c r="BH11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="BH11" s="7" t="s">
+      <c r="BI11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="BI11" s="7" t="s">
+      <c r="BJ11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BJ11" s="7" t="s">
+      <c r="BK11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BK11" s="7" t="s">
+      <c r="BL11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BL11" s="7" t="s">
+      <c r="BM11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="BM11" s="7" t="s">
+      <c r="BN11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BN11" s="7" t="s">
+      <c r="BO11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BO11" s="7" t="s">
+      <c r="BP11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="BP11" s="7" t="s">
+      <c r="BQ11" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BQ11" s="7" t="s">
+      <c r="BR11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="BR11" s="7" t="s">
+      <c r="BS11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="BS11" s="7" t="s">
+      <c r="BT11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="BT11" s="7" t="s">
+      <c r="BU11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="BU11" s="7" t="s">
+      <c r="BV11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="BV11" s="7" t="s">
+      <c r="BW11" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BW11" s="7" t="s">
+      <c r="BX11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="BX11" s="7" t="s">
+      <c r="BY11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BY11" s="7" t="s">
+      <c r="BZ11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="BZ11" s="7" t="s">
+      <c r="CA11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="CA11" s="7" t="s">
+      <c r="CB11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="CB11" s="7" t="s">
+      <c r="CC11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="CC11" s="7" t="s">
+      <c r="CD11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="CD11" s="7" t="s">
+      <c r="CE11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="CE11" s="7" t="s">
+      <c r="CF11" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="CF11" s="7" t="s">
+      <c r="CG11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CG11" s="7" t="s">
+      <c r="CH11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CH11" s="7" t="s">
+      <c r="CI11" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CI11" s="7" t="s">
+      <c r="CJ11" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="CJ11" s="7" t="s">
+      <c r="CK11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="CK11" s="7" t="s">
+      <c r="CL11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="CL11" s="7" t="s">
+      <c r="CM11" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="CM11" s="7" t="s">
+      <c r="CN11" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CN11" s="7" t="s">
+      <c r="CO11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="CO11" s="7" t="s">
+      <c r="CP11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="CP11" s="7" t="s">
+      <c r="CQ11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="CQ11" s="7" t="s">
+      <c r="CR11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="CR11" s="7" t="s">
+      <c r="CS11" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="CS11" s="7" t="s">
+      <c r="CT11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CT11" s="7" t="s">
+      <c r="CU11" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CU11" s="7" t="s">
+      <c r="CV11" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="CV11" s="7" t="s">
+      <c r="CW11" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="CW11" s="7" t="s">
+      <c r="CX11" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="CX11" s="7" t="s">
+      <c r="CY11" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="CY11" s="7" t="s">
+      <c r="CZ11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CZ11" s="7" t="s">
+      <c r="DA11" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="DA11" s="7" t="s">
+      <c r="DB11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="DB11" s="7" t="s">
+      <c r="DC11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="DC11" s="7" t="s">
+      <c r="DD11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="DD11" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="DE11" s="7"/>
       <c r="DF11" s="7"/>
@@ -1709,11 +1737,11 @@
       <c r="DH11" s="8"/>
     </row>
     <row r="12" spans="2:112" ht="27" thickBot="1">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1730,10 +1758,10 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -1746,7 +1774,7 @@
       <c r="AD12" s="9"/>
       <c r="AE12" s="9"/>
       <c r="AF12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AG12" s="9"/>
       <c r="AH12" s="9"/>
@@ -1755,19 +1783,19 @@
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AN12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AO12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AP12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AQ12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AR12" s="9"/>
       <c r="AS12" s="9"/>
@@ -1790,19 +1818,19 @@
       <c r="BJ12" s="9"/>
       <c r="BK12" s="9"/>
       <c r="BL12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BM12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BN12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BO12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BP12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BQ12" s="9"/>
       <c r="BR12" s="9"/>
@@ -1825,34 +1853,34 @@
       <c r="CI12" s="9"/>
       <c r="CJ12" s="9"/>
       <c r="CK12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CL12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CM12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CN12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CO12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CP12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CQ12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CR12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CS12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CT12" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -1870,11 +1898,11 @@
       <c r="DH12" s="10"/>
     </row>
     <row r="13" spans="2:112" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
         <v>3</v>
@@ -1916,9 +1944,11 @@
       <c r="AO13" s="9"/>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AR13" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="AR13" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -1989,11 +2019,11 @@
       <c r="DH13" s="10"/>
     </row>
     <row r="14" spans="2:112" ht="27" thickBot="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2002,10 +2032,10 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2107,12 +2137,12 @@
       <c r="DG14" s="9"/>
       <c r="DH14" s="10"/>
     </row>
-    <row r="15" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:112" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2145,11 +2175,11 @@
       <c r="AH15" s="9"/>
       <c r="AI15" s="9"/>
       <c r="AJ15" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9"/>
@@ -2226,74 +2256,66 @@
       <c r="DG15" s="9"/>
       <c r="DH15" s="10"/>
     </row>
-    <row r="16" spans="2:112" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+    <row r="16" spans="2:112" ht="44.25" customHeight="1" thickBot="1">
+      <c r="B16" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="X16" s="9"/>
-      <c r="Y16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA16" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
       <c r="AB16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AD16" s="9"/>
       <c r="AE16" s="9"/>
@@ -2320,34 +2342,34 @@
       <c r="AZ16" s="9"/>
       <c r="BA16" s="9"/>
       <c r="BB16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BE16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BF16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BG16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BH16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BI16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BJ16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BK16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BL16" s="9"/>
       <c r="BM16" s="9"/>
@@ -2355,64 +2377,64 @@
       <c r="BO16" s="9"/>
       <c r="BP16" s="9"/>
       <c r="BQ16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BR16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BS16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BT16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BU16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BV16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BW16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BX16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BY16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BZ16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CA16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CB16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CC16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CD16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CE16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CF16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CG16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CH16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CI16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CJ16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
@@ -2426,45 +2448,49 @@
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CW16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CX16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CY16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="CZ16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DA16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DB16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DC16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DD16" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="DE16" s="9"/>
       <c r="DF16" s="9"/>
       <c r="DG16" s="9"/>
       <c r="DH16" s="10"/>
     </row>
-    <row r="17" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+    <row r="17" spans="2:112" ht="40.5" customHeight="1" thickBot="1">
+      <c r="B17" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
@@ -2477,23 +2503,49 @@
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
+      <c r="S17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
+      <c r="V17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
+      <c r="AD17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
+      <c r="AG17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AJ17" s="9"/>
       <c r="AK17" s="9"/>
       <c r="AL17" s="9"/>
@@ -2501,8 +2553,12 @@
       <c r="AN17" s="9"/>
       <c r="AO17" s="9"/>
       <c r="AP17" s="9"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
+      <c r="AQ17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -2527,11 +2583,21 @@
       <c r="BN17" s="9"/>
       <c r="BO17" s="9"/>
       <c r="BP17" s="9"/>
-      <c r="BQ17" s="9"/>
-      <c r="BR17" s="9"/>
-      <c r="BS17" s="9"/>
-      <c r="BT17" s="9"/>
-      <c r="BU17" s="9"/>
+      <c r="BQ17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BR17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BT17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BU17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="BV17" s="9"/>
       <c r="BW17" s="9"/>
       <c r="BX17" s="9"/>
@@ -2557,7 +2623,9 @@
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
-      <c r="CU17" s="9"/>
+      <c r="CU17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
@@ -2572,12 +2640,12 @@
       <c r="DG17" s="9"/>
       <c r="DH17" s="10"/>
     </row>
-    <row r="18" spans="2:112" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+    <row r="18" spans="2:112" ht="39.75" customHeight="1" thickBot="1">
+      <c r="B18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2601,8 +2669,12 @@
       <c r="Y18" s="9"/>
       <c r="Z18" s="9"/>
       <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
+      <c r="AB18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="AD18" s="9"/>
       <c r="AE18" s="9"/>
       <c r="AF18" s="9"/>
@@ -2688,18 +2760,22 @@
       <c r="DH18" s="10"/>
     </row>
     <row r="19" spans="2:112" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
@@ -2711,7 +2787,9 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
+      <c r="W19" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
@@ -2790,7 +2868,9 @@
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
-      <c r="CX19" s="9"/>
+      <c r="CX19" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
@@ -2803,11 +2883,11 @@
       <c r="DH19" s="10"/>
     </row>
     <row r="20" spans="2:112" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -2848,15 +2928,33 @@
       <c r="AP20" s="9"/>
       <c r="AQ20" s="9"/>
       <c r="AR20" s="9"/>
-      <c r="AS20" s="9"/>
-      <c r="AT20" s="9"/>
-      <c r="AU20" s="9"/>
-      <c r="AV20" s="9"/>
-      <c r="AW20" s="9"/>
-      <c r="AX20" s="9"/>
-      <c r="AY20" s="9"/>
-      <c r="AZ20" s="9"/>
-      <c r="BA20" s="9"/>
+      <c r="AS20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AW20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA20" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="BB20" s="9"/>
       <c r="BC20" s="9"/>
       <c r="BD20" s="9"/>
@@ -2918,9 +3016,9 @@
       <c r="DH20" s="10"/>
     </row>
     <row r="21" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3031,9 +3129,9 @@
       <c r="DH21" s="10"/>
     </row>
     <row r="22" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -3144,9 +3242,9 @@
       <c r="DH22" s="10"/>
     </row>
     <row r="23" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -3257,9 +3355,9 @@
       <c r="DH23" s="10"/>
     </row>
     <row r="24" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -3370,9 +3468,9 @@
       <c r="DH24" s="10"/>
     </row>
     <row r="25" spans="2:112" ht="27" thickBot="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3483,9 +3581,9 @@
       <c r="DH25" s="10"/>
     </row>
     <row r="26" spans="2:112" ht="27" thickBot="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3596,9 +3694,9 @@
       <c r="DH26" s="10"/>
     </row>
     <row r="27" spans="2:112" ht="27" thickBot="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3709,9 +3807,9 @@
       <c r="DH27" s="10"/>
     </row>
     <row r="28" spans="2:112" ht="27" thickBot="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3822,9 +3920,9 @@
       <c r="DH28" s="10"/>
     </row>
     <row r="29" spans="2:112" ht="27" thickBot="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -3935,9 +4033,9 @@
       <c r="DH29" s="10"/>
     </row>
     <row r="30" spans="2:112" ht="27" thickBot="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -4048,9 +4146,9 @@
       <c r="DH30" s="10"/>
     </row>
     <row r="31" spans="2:112" ht="27" thickBot="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -4161,9 +4259,9 @@
       <c r="DH31" s="10"/>
     </row>
     <row r="32" spans="2:112" ht="27" thickBot="1">
-      <c r="B32" s="15"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -4275,28 +4373,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B6:X6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -4309,6 +4385,28 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4320,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DH34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4331,7 +4429,8 @@
     <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="37" style="2" customWidth="1"/>
     <col min="5" max="14" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" style="2" customWidth="1"/>
+    <col min="16" max="18" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="28" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4350,26 +4449,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:112" ht="23.25">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="2:112">
       <c r="B3" s="3"/>
@@ -4379,176 +4478,190 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:112" ht="39" customHeight="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
     </row>
     <row r="5" spans="2:112" ht="37.5" customHeight="1">
-      <c r="B5" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
+      <c r="B5" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="6" spans="2:112" ht="18.75">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
     </row>
     <row r="7" spans="2:112">
       <c r="B7" s="5"/>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="21"/>
-      <c r="U7" s="22">
+      <c r="T7" s="18"/>
+      <c r="U7" s="19">
         <v>41202</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
     </row>
     <row r="8" spans="2:112" ht="15" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
     </row>
     <row r="9" spans="2:112" ht="15" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="2:112" ht="15.75" thickBot="1">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:112" ht="223.5" customHeight="1" thickBot="1">
-      <c r="B11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="G11" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
@@ -4648,15 +4761,17 @@
       <c r="DH11" s="8"/>
     </row>
     <row r="12" spans="2:112" ht="27" thickBot="1">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -4763,17 +4878,19 @@
       <c r="DH12" s="10"/>
     </row>
     <row r="13" spans="2:112" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
@@ -4880,17 +4997,19 @@
       <c r="DH13" s="10"/>
     </row>
     <row r="14" spans="2:112" ht="27" thickBot="1">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -4994,18 +5113,20 @@
       <c r="DG14" s="9"/>
       <c r="DH14" s="10"/>
     </row>
-    <row r="15" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:112" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -5109,14 +5230,16 @@
       <c r="DG15" s="9"/>
       <c r="DH15" s="10"/>
     </row>
-    <row r="16" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:112" ht="24.75" customHeight="1" thickBot="1">
+      <c r="B16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="F16" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -5225,16 +5348,22 @@
       <c r="DH16" s="10"/>
     </row>
     <row r="17" spans="2:112" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -5339,23 +5468,35 @@
       <c r="DG17" s="9"/>
       <c r="DH17" s="10"/>
     </row>
-    <row r="18" spans="2:112" ht="69" customHeight="1" thickBot="1">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:112" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B18" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="N18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
@@ -5454,13 +5595,15 @@
       <c r="DG18" s="9"/>
       <c r="DH18" s="10"/>
     </row>
-    <row r="19" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="2:112" ht="31.5" customHeight="1" thickBot="1">
+      <c r="B19" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -5569,12 +5712,12 @@
       <c r="DG19" s="9"/>
       <c r="DH19" s="10"/>
     </row>
-    <row r="20" spans="2:112" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="2:112" ht="61.5" customHeight="1" thickBot="1">
+      <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -5582,8 +5725,12 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="L20" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -5684,20 +5831,24 @@
       <c r="DG20" s="9"/>
       <c r="DH20" s="10"/>
     </row>
-    <row r="21" spans="2:112" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="2:112" ht="48.75" customHeight="1" thickBot="1">
+      <c r="B21" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="K21" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -5799,12 +5950,10 @@
       <c r="DG21" s="9"/>
       <c r="DH21" s="10"/>
     </row>
-    <row r="22" spans="2:112" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B22" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+    <row r="22" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -5915,9 +6064,9 @@
       <c r="DH22" s="10"/>
     </row>
     <row r="23" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6028,9 +6177,9 @@
       <c r="DH23" s="10"/>
     </row>
     <row r="24" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -6141,9 +6290,9 @@
       <c r="DH24" s="10"/>
     </row>
     <row r="25" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -6253,10 +6402,10 @@
       <c r="DG25" s="9"/>
       <c r="DH25" s="10"/>
     </row>
-    <row r="26" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+    <row r="26" spans="2:112" ht="27" thickBot="1">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6367,9 +6516,9 @@
       <c r="DH26" s="10"/>
     </row>
     <row r="27" spans="2:112" ht="27" thickBot="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6480,9 +6629,9 @@
       <c r="DH27" s="10"/>
     </row>
     <row r="28" spans="2:112" ht="27" thickBot="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -6593,9 +6742,9 @@
       <c r="DH28" s="10"/>
     </row>
     <row r="29" spans="2:112" ht="27" thickBot="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -6706,9 +6855,9 @@
       <c r="DH29" s="10"/>
     </row>
     <row r="30" spans="2:112" ht="27" thickBot="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -6819,9 +6968,9 @@
       <c r="DH30" s="10"/>
     </row>
     <row r="31" spans="2:112" ht="27" thickBot="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -6932,9 +7081,9 @@
       <c r="DH31" s="10"/>
     </row>
     <row r="32" spans="2:112" ht="27" thickBot="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -7045,246 +7194,138 @@
       <c r="DH32" s="10"/>
     </row>
     <row r="33" spans="2:112" ht="27" thickBot="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="9"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="9"/>
-      <c r="AO33" s="9"/>
-      <c r="AP33" s="9"/>
-      <c r="AQ33" s="9"/>
-      <c r="AR33" s="9"/>
-      <c r="AS33" s="9"/>
-      <c r="AT33" s="9"/>
-      <c r="AU33" s="9"/>
-      <c r="AV33" s="9"/>
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
-      <c r="BE33" s="9"/>
-      <c r="BF33" s="9"/>
-      <c r="BG33" s="9"/>
-      <c r="BH33" s="9"/>
-      <c r="BI33" s="9"/>
-      <c r="BJ33" s="9"/>
-      <c r="BK33" s="9"/>
-      <c r="BL33" s="9"/>
-      <c r="BM33" s="9"/>
-      <c r="BN33" s="9"/>
-      <c r="BO33" s="9"/>
-      <c r="BP33" s="9"/>
-      <c r="BQ33" s="9"/>
-      <c r="BR33" s="9"/>
-      <c r="BS33" s="9"/>
-      <c r="BT33" s="9"/>
-      <c r="BU33" s="9"/>
-      <c r="BV33" s="9"/>
-      <c r="BW33" s="9"/>
-      <c r="BX33" s="9"/>
-      <c r="BY33" s="9"/>
-      <c r="BZ33" s="9"/>
-      <c r="CA33" s="9"/>
-      <c r="CB33" s="9"/>
-      <c r="CC33" s="9"/>
-      <c r="CD33" s="9"/>
-      <c r="CE33" s="9"/>
-      <c r="CF33" s="9"/>
-      <c r="CG33" s="9"/>
-      <c r="CH33" s="9"/>
-      <c r="CI33" s="9"/>
-      <c r="CJ33" s="9"/>
-      <c r="CK33" s="9"/>
-      <c r="CL33" s="9"/>
-      <c r="CM33" s="9"/>
-      <c r="CN33" s="9"/>
-      <c r="CO33" s="9"/>
-      <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
-      <c r="CR33" s="9"/>
-      <c r="CS33" s="9"/>
-      <c r="CT33" s="9"/>
-      <c r="CU33" s="9"/>
-      <c r="CV33" s="9"/>
-      <c r="CW33" s="9"/>
-      <c r="CX33" s="9"/>
-      <c r="CY33" s="9"/>
-      <c r="CZ33" s="9"/>
-      <c r="DA33" s="9"/>
-      <c r="DB33" s="9"/>
-      <c r="DC33" s="9"/>
-      <c r="DD33" s="9"/>
-      <c r="DE33" s="9"/>
-      <c r="DF33" s="9"/>
-      <c r="DG33" s="9"/>
-      <c r="DH33" s="10"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+      <c r="BM33" s="11"/>
+      <c r="BN33" s="11"/>
+      <c r="BO33" s="11"/>
+      <c r="BP33" s="11"/>
+      <c r="BQ33" s="11"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="11"/>
+      <c r="BU33" s="11"/>
+      <c r="BV33" s="11"/>
+      <c r="BW33" s="11"/>
+      <c r="BX33" s="11"/>
+      <c r="BY33" s="11"/>
+      <c r="BZ33" s="11"/>
+      <c r="CA33" s="11"/>
+      <c r="CB33" s="11"/>
+      <c r="CC33" s="11"/>
+      <c r="CD33" s="11"/>
+      <c r="CE33" s="11"/>
+      <c r="CF33" s="11"/>
+      <c r="CG33" s="11"/>
+      <c r="CH33" s="11"/>
+      <c r="CI33" s="11"/>
+      <c r="CJ33" s="11"/>
+      <c r="CK33" s="11"/>
+      <c r="CL33" s="11"/>
+      <c r="CM33" s="11"/>
+      <c r="CN33" s="11"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="11"/>
+      <c r="CQ33" s="11"/>
+      <c r="CR33" s="11"/>
+      <c r="CS33" s="11"/>
+      <c r="CT33" s="11"/>
+      <c r="CU33" s="11"/>
+      <c r="CV33" s="11"/>
+      <c r="CW33" s="11"/>
+      <c r="CX33" s="11"/>
+      <c r="CY33" s="11"/>
+      <c r="CZ33" s="11"/>
+      <c r="DA33" s="11"/>
+      <c r="DB33" s="11"/>
+      <c r="DC33" s="11"/>
+      <c r="DD33" s="11"/>
+      <c r="DE33" s="11"/>
+      <c r="DF33" s="11"/>
+      <c r="DG33" s="11"/>
+      <c r="DH33" s="12"/>
     </row>
-    <row r="34" spans="2:112" ht="27" thickBot="1">
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
-      <c r="AH34" s="11"/>
-      <c r="AI34" s="11"/>
-      <c r="AJ34" s="11"/>
-      <c r="AK34" s="11"/>
-      <c r="AL34" s="11"/>
-      <c r="AM34" s="11"/>
-      <c r="AN34" s="11"/>
-      <c r="AO34" s="11"/>
-      <c r="AP34" s="11"/>
-      <c r="AQ34" s="11"/>
-      <c r="AR34" s="11"/>
-      <c r="AS34" s="11"/>
-      <c r="AT34" s="11"/>
-      <c r="AU34" s="11"/>
-      <c r="AV34" s="11"/>
-      <c r="AW34" s="11"/>
-      <c r="AX34" s="11"/>
-      <c r="AY34" s="11"/>
-      <c r="AZ34" s="11"/>
-      <c r="BA34" s="11"/>
-      <c r="BB34" s="11"/>
-      <c r="BC34" s="11"/>
-      <c r="BD34" s="11"/>
-      <c r="BE34" s="11"/>
-      <c r="BF34" s="11"/>
-      <c r="BG34" s="11"/>
-      <c r="BH34" s="11"/>
-      <c r="BI34" s="11"/>
-      <c r="BJ34" s="11"/>
-      <c r="BK34" s="11"/>
-      <c r="BL34" s="11"/>
-      <c r="BM34" s="11"/>
-      <c r="BN34" s="11"/>
-      <c r="BO34" s="11"/>
-      <c r="BP34" s="11"/>
-      <c r="BQ34" s="11"/>
-      <c r="BR34" s="11"/>
-      <c r="BS34" s="11"/>
-      <c r="BT34" s="11"/>
-      <c r="BU34" s="11"/>
-      <c r="BV34" s="11"/>
-      <c r="BW34" s="11"/>
-      <c r="BX34" s="11"/>
-      <c r="BY34" s="11"/>
-      <c r="BZ34" s="11"/>
-      <c r="CA34" s="11"/>
-      <c r="CB34" s="11"/>
-      <c r="CC34" s="11"/>
-      <c r="CD34" s="11"/>
-      <c r="CE34" s="11"/>
-      <c r="CF34" s="11"/>
-      <c r="CG34" s="11"/>
-      <c r="CH34" s="11"/>
-      <c r="CI34" s="11"/>
-      <c r="CJ34" s="11"/>
-      <c r="CK34" s="11"/>
-      <c r="CL34" s="11"/>
-      <c r="CM34" s="11"/>
-      <c r="CN34" s="11"/>
-      <c r="CO34" s="11"/>
-      <c r="CP34" s="11"/>
-      <c r="CQ34" s="11"/>
-      <c r="CR34" s="11"/>
-      <c r="CS34" s="11"/>
-      <c r="CT34" s="11"/>
-      <c r="CU34" s="11"/>
-      <c r="CV34" s="11"/>
-      <c r="CW34" s="11"/>
-      <c r="CX34" s="11"/>
-      <c r="CY34" s="11"/>
-      <c r="CZ34" s="11"/>
-      <c r="DA34" s="11"/>
-      <c r="DB34" s="11"/>
-      <c r="DC34" s="11"/>
-      <c r="DD34" s="11"/>
-      <c r="DE34" s="11"/>
-      <c r="DF34" s="11"/>
-      <c r="DG34" s="11"/>
-      <c r="DH34" s="12"/>
+    <row r="34" spans="2:112" ht="18.75">
+      <c r="B34" s="32" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B6:X6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:I10"/>
+  <mergeCells count="35">
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
@@ -7295,35 +7336,21 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Documentacion/Proyecto/Matriz de Trazabilidad.xlsx
+++ b/Documentacion/Proyecto/Matriz de Trazabilidad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Req vs CU" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
   <si>
     <t>Versión [1.0]</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>* Cuando se nombra componente Grails, este incluye la clase de dominio, su controlador y su vista</t>
+  </si>
+  <si>
+    <t>Req.                Componente</t>
   </si>
 </sst>
 </file>
@@ -754,20 +757,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -787,31 +800,21 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1201,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DH32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1239,26 +1242,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:112" ht="23.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="2:112">
       <c r="B3" s="3"/>
@@ -1268,157 +1271,157 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:112" ht="39" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="2:112" ht="37.5" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
     </row>
     <row r="6" spans="2:112" ht="18.75">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
     </row>
     <row r="7" spans="2:112">
       <c r="B7" s="5"/>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19">
+      <c r="T7" s="22"/>
+      <c r="U7" s="23">
         <v>41202</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="2:112" ht="15" customHeight="1">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:112" ht="15" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="2:112" ht="15.75" thickBot="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:112" ht="223.5" customHeight="1" thickBot="1">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
@@ -1737,11 +1740,11 @@
       <c r="DH11" s="8"/>
     </row>
     <row r="12" spans="2:112" ht="27" thickBot="1">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1898,11 +1901,11 @@
       <c r="DH12" s="10"/>
     </row>
     <row r="13" spans="2:112" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
         <v>3</v>
@@ -2019,11 +2022,11 @@
       <c r="DH13" s="10"/>
     </row>
     <row r="14" spans="2:112" ht="27" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -2138,11 +2141,11 @@
       <c r="DH14" s="10"/>
     </row>
     <row r="15" spans="2:112" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -2257,11 +2260,11 @@
       <c r="DH15" s="10"/>
     </row>
     <row r="16" spans="2:112" ht="44.25" customHeight="1" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
@@ -2480,11 +2483,11 @@
       <c r="DH16" s="10"/>
     </row>
     <row r="17" spans="2:112" ht="40.5" customHeight="1" thickBot="1">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
       <c r="E17" s="9" t="s">
         <v>122</v>
       </c>
@@ -2641,11 +2644,11 @@
       <c r="DH17" s="10"/>
     </row>
     <row r="18" spans="2:112" ht="39.75" customHeight="1" thickBot="1">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2760,11 +2763,11 @@
       <c r="DH18" s="10"/>
     </row>
     <row r="19" spans="2:112" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
@@ -2883,11 +2886,11 @@
       <c r="DH19" s="10"/>
     </row>
     <row r="20" spans="2:112" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3016,9 +3019,9 @@
       <c r="DH20" s="10"/>
     </row>
     <row r="21" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -3129,9 +3132,9 @@
       <c r="DH21" s="10"/>
     </row>
     <row r="22" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -3242,9 +3245,9 @@
       <c r="DH22" s="10"/>
     </row>
     <row r="23" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -3355,9 +3358,9 @@
       <c r="DH23" s="10"/>
     </row>
     <row r="24" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -3468,9 +3471,9 @@
       <c r="DH24" s="10"/>
     </row>
     <row r="25" spans="2:112" ht="27" thickBot="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -3581,9 +3584,9 @@
       <c r="DH25" s="10"/>
     </row>
     <row r="26" spans="2:112" ht="27" thickBot="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -3694,9 +3697,9 @@
       <c r="DH26" s="10"/>
     </row>
     <row r="27" spans="2:112" ht="27" thickBot="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -3807,9 +3810,9 @@
       <c r="DH27" s="10"/>
     </row>
     <row r="28" spans="2:112" ht="27" thickBot="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -3920,9 +3923,9 @@
       <c r="DH28" s="10"/>
     </row>
     <row r="29" spans="2:112" ht="27" thickBot="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -4033,9 +4036,9 @@
       <c r="DH29" s="10"/>
     </row>
     <row r="30" spans="2:112" ht="27" thickBot="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -4146,9 +4149,9 @@
       <c r="DH30" s="10"/>
     </row>
     <row r="31" spans="2:112" ht="27" thickBot="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -4259,9 +4262,9 @@
       <c r="DH31" s="10"/>
     </row>
     <row r="32" spans="2:112" ht="27" thickBot="1">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -4373,6 +4376,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -4385,28 +4410,6 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B6:X6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4418,8 +4421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:DH34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4449,26 +4452,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:112" ht="23.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="2:112">
       <c r="B3" s="3"/>
@@ -4478,157 +4481,157 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:112" ht="39" customHeight="1">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
     </row>
     <row r="5" spans="2:112" ht="37.5" customHeight="1">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
     </row>
     <row r="6" spans="2:112" ht="18.75">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
     </row>
     <row r="7" spans="2:112">
       <c r="B7" s="5"/>
-      <c r="S7" s="18" t="s">
+      <c r="S7" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="18"/>
-      <c r="U7" s="19">
+      <c r="T7" s="22"/>
+      <c r="U7" s="23">
         <v>41202</v>
       </c>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
     </row>
     <row r="8" spans="2:112" ht="15" customHeight="1">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
     </row>
     <row r="9" spans="2:112" ht="15" customHeight="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="2:112" ht="15.75" thickBot="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:112" ht="223.5" customHeight="1" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="7" t="s">
         <v>124</v>
       </c>
@@ -4761,11 +4764,11 @@
       <c r="DH11" s="8"/>
     </row>
     <row r="12" spans="2:112" ht="27" thickBot="1">
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -4878,11 +4881,11 @@
       <c r="DH12" s="10"/>
     </row>
     <row r="13" spans="2:112" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
         <v>3</v>
@@ -4997,11 +5000,11 @@
       <c r="DH13" s="10"/>
     </row>
     <row r="14" spans="2:112" ht="27" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -5114,11 +5117,11 @@
       <c r="DH14" s="10"/>
     </row>
     <row r="15" spans="2:112" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -5231,11 +5234,11 @@
       <c r="DH15" s="10"/>
     </row>
     <row r="16" spans="2:112" ht="24.75" customHeight="1" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
         <v>122</v>
@@ -5348,11 +5351,11 @@
       <c r="DH16" s="10"/>
     </row>
     <row r="17" spans="2:112" ht="33.75" customHeight="1" thickBot="1">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="9" t="s">
         <v>122</v>
       </c>
@@ -5469,11 +5472,11 @@
       <c r="DH17" s="10"/>
     </row>
     <row r="18" spans="2:112" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="9" t="s">
         <v>122</v>
       </c>
@@ -5596,11 +5599,11 @@
       <c r="DH18" s="10"/>
     </row>
     <row r="19" spans="2:112" ht="31.5" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="9" t="s">
         <v>122</v>
       </c>
@@ -5713,11 +5716,11 @@
       <c r="DH19" s="10"/>
     </row>
     <row r="20" spans="2:112" ht="61.5" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -5832,11 +5835,11 @@
       <c r="DH20" s="10"/>
     </row>
     <row r="21" spans="2:112" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
@@ -5951,9 +5954,9 @@
       <c r="DH21" s="10"/>
     </row>
     <row r="22" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -6064,9 +6067,9 @@
       <c r="DH22" s="10"/>
     </row>
     <row r="23" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -6177,9 +6180,9 @@
       <c r="DH23" s="10"/>
     </row>
     <row r="24" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -6290,9 +6293,9 @@
       <c r="DH24" s="10"/>
     </row>
     <row r="25" spans="2:112" ht="15.95" customHeight="1" thickBot="1">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -6403,9 +6406,9 @@
       <c r="DH25" s="10"/>
     </row>
     <row r="26" spans="2:112" ht="27" thickBot="1">
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -6516,9 +6519,9 @@
       <c r="DH26" s="10"/>
     </row>
     <row r="27" spans="2:112" ht="27" thickBot="1">
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -6629,9 +6632,9 @@
       <c r="DH27" s="10"/>
     </row>
     <row r="28" spans="2:112" ht="27" thickBot="1">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -6742,9 +6745,9 @@
       <c r="DH28" s="10"/>
     </row>
     <row r="29" spans="2:112" ht="27" thickBot="1">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -6855,9 +6858,9 @@
       <c r="DH29" s="10"/>
     </row>
     <row r="30" spans="2:112" ht="27" thickBot="1">
-      <c r="B30" s="28"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -6968,9 +6971,9 @@
       <c r="DH30" s="10"/>
     </row>
     <row r="31" spans="2:112" ht="27" thickBot="1">
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -7081,9 +7084,9 @@
       <c r="DH31" s="10"/>
     </row>
     <row r="32" spans="2:112" ht="27" thickBot="1">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
@@ -7194,9 +7197,9 @@
       <c r="DH32" s="10"/>
     </row>
     <row r="33" spans="2:112" ht="27" thickBot="1">
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -7307,12 +7310,35 @@
       <c r="DH33" s="12"/>
     </row>
     <row r="34" spans="2:112" ht="18.75">
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="13" t="s">
         <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B6:X6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="K2:V2"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:W5"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="B8:R8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
@@ -7325,29 +7351,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="B8:R8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B6:X6"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="K2:V2"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
